--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1157.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1157.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.61085506367156</v>
+        <v>1.163615822792053</v>
       </c>
       <c r="B1">
-        <v>1.707346272761686</v>
+        <v>2.422133445739746</v>
       </c>
       <c r="C1">
-        <v>1.92809258996926</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>3.008986485099183</v>
+        <v>2.376189708709717</v>
       </c>
       <c r="E1">
-        <v>2.287238615772538</v>
+        <v>1.234842419624329</v>
       </c>
     </row>
   </sheetData>
